--- a/control de tareas Unidad II - Joel.xlsx
+++ b/control de tareas Unidad II - Joel.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdalbertoPc\Documents\luterano 2016\Bachillerato\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8820" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="Creacion de canal de Youtube" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Conceptos Fundamentales progra" sheetId="3" r:id="rId3"/>
     <sheet name="Introduccion a C++" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +27,7 @@
     <author>AdalbertoPc</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
     <author>AdalbertoPc</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +86,7 @@
     <author>AdalbertoPc</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +111,7 @@
     <author>AdalbertoPc</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>hoja de cotejo Produccion de Contenidos digitales.</t>
   </si>
@@ -159,12 +154,6 @@
     <t>Nombre del Canal</t>
   </si>
   <si>
-    <t>Julio Adalberto</t>
-  </si>
-  <si>
-    <t>Prof. Julio Gómez</t>
-  </si>
-  <si>
     <t>Explicacion de Algoritmos</t>
   </si>
   <si>
@@ -226,12 +215,48 @@
   </si>
   <si>
     <t>Fecha Entrega:</t>
+  </si>
+  <si>
+    <t>Rafael Leiva</t>
+  </si>
+  <si>
+    <t>Rudy Echeverria</t>
+  </si>
+  <si>
+    <t>Alicia Eunice</t>
+  </si>
+  <si>
+    <t>Joel Cifuentes</t>
+  </si>
+  <si>
+    <t>Alicia eunice</t>
+  </si>
+  <si>
+    <t>Rigoberto Franco</t>
+  </si>
+  <si>
+    <t>Makintab Production</t>
+  </si>
+  <si>
+    <t>nathaly Rafael</t>
+  </si>
+  <si>
+    <t>Jonathan Franco</t>
+  </si>
+  <si>
+    <t>Alicia Jr.</t>
+  </si>
+  <si>
+    <t>FrancoRamirezOficial</t>
+  </si>
+  <si>
+    <t>Rudyalberto Echeverriamorales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,7 +512,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -539,7 +564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -733,7 +758,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +791,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10">
         <v>42467</v>
@@ -797,10 +822,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -809,8 +834,12 @@
         <v>2</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,8 +847,12 @@
         <v>3</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,8 +860,12 @@
         <v>4</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,8 +873,12 @@
         <v>5</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,11 +924,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
@@ -907,7 +948,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10">
         <v>42481</v>
@@ -928,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>3</v>
@@ -942,12 +983,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,9 +999,11 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,9 +1012,11 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,9 +1025,11 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -989,9 +1038,11 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1037,10 +1088,10 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
@@ -1060,7 +1111,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10">
         <v>42495</v>
@@ -1081,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>3</v>
@@ -1095,12 +1146,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1109,9 +1162,11 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,9 +1175,11 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,9 +1188,11 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,9 +1201,11 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,11 +1250,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
@@ -1204,7 +1265,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1213,7 +1274,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10">
         <v>42509</v>
@@ -1234,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>3</v>
@@ -1248,12 +1309,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,9 +1325,11 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,9 +1338,11 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1284,9 +1351,11 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,9 +1364,11 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="13"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">

--- a/control de tareas Unidad II - Joel.xlsx
+++ b/control de tareas Unidad II - Joel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdalbertoPc\Documents\luterano 2016\Bachillerato\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdalbertoPc\Documents\luterano 2016\Bachillerato\tareas\videosDigital\PunteosActividades5to\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8820" tabRatio="782" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Creacion de canal de Youtube" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Conceptos Fundamentales progra" sheetId="3" r:id="rId3"/>
     <sheet name="Introduccion a C++" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>hoja de cotejo Produccion de Contenidos digitales.</t>
   </si>
@@ -159,12 +159,6 @@
     <t>Nombre del Canal</t>
   </si>
   <si>
-    <t>Julio Adalberto</t>
-  </si>
-  <si>
-    <t>Prof. Julio Gómez</t>
-  </si>
-  <si>
     <t>Explicacion de Algoritmos</t>
   </si>
   <si>
@@ -226,6 +220,36 @@
   </si>
   <si>
     <t>Fecha Entrega:</t>
+  </si>
+  <si>
+    <t>Rafael Leiva</t>
+  </si>
+  <si>
+    <t>Rudy Echeverria</t>
+  </si>
+  <si>
+    <t>Alicia Eunice</t>
+  </si>
+  <si>
+    <t>Joel Cifuentes</t>
+  </si>
+  <si>
+    <t>Alicia eunice</t>
+  </si>
+  <si>
+    <t>Rigoberto Franco</t>
+  </si>
+  <si>
+    <t>Makintab Production</t>
+  </si>
+  <si>
+    <t>nathaly Rafael</t>
+  </si>
+  <si>
+    <t>Jonathan Franco</t>
+  </si>
+  <si>
+    <t>Alicia Jr.</t>
   </si>
 </sst>
 </file>
@@ -743,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +790,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10">
         <v>42467</v>
@@ -797,48 +821,74 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -883,11 +933,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
@@ -907,7 +957,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10">
         <v>42481</v>
@@ -928,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>3</v>
@@ -942,13 +992,17 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -956,10 +1010,14 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -967,10 +1025,14 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -978,10 +1040,14 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -989,10 +1055,14 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1037,10 +1107,10 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
@@ -1060,7 +1130,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10">
         <v>42495</v>
@@ -1081,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>3</v>
@@ -1095,12 +1165,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1109,9 +1181,11 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,9 +1194,11 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,9 +1207,11 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,9 +1220,11 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,10 +1270,10 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
@@ -1204,7 +1284,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1213,7 +1293,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10">
         <v>42509</v>
@@ -1234,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>3</v>
@@ -1248,12 +1328,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,9 +1344,11 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,9 +1357,11 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1284,9 +1370,11 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,9 +1383,11 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="13"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1328,7 +1418,7 @@
       <c r="E14" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B7:B14"/>

--- a/control de tareas Unidad II - Joel.xlsx
+++ b/control de tareas Unidad II - Joel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8820" tabRatio="782" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8820" tabRatio="782" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Creacion de canal de Youtube" sheetId="1" r:id="rId1"/>
@@ -933,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1173,9 @@
       <c r="D7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1186,7 +1188,9 @@
       <c r="D8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1199,7 +1203,9 @@
       <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1212,7 +1218,9 @@
       <c r="D10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1225,7 +1233,9 @@
       <c r="D11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">

--- a/control de tareas Unidad II - Joel.xlsx
+++ b/control de tareas Unidad II - Joel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8820" tabRatio="782"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8820" tabRatio="782" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Creacion de canal de Youtube" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1354,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -1367,7 +1367,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7"/>
     </row>
